--- a/tables/playerAccoutData.xlsx
+++ b/tables/playerAccoutData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancy.shi/Documents/serverCode/project_T_server/project_T_server/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyun/Documents/project_T_server/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6891C6-F845-CB46-8CE8-2EB1B6F8BDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C43BA6-6777-7649-B803-A6F4DD735F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,12 +382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,7 +428,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>100000001</v>
       </c>
     </row>
   </sheetData>
